--- a/data/Anforderungen SPLG/qual_anf_IO_final.xlsx
+++ b/data/Anforderungen SPLG/qual_anf_IO_final.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72e34f8aa76be035/01_work/01_writing ^0 reviewing/06_other_projects/SW!SS REHA/SWISS-Reha-report/data/Anforderungen SPLG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72e34f8aa76be035/01_work/02_R/02_projects/SWISS_REHA_report/data/Anforderungen SPLG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="818" documentId="8_{00EF4B32-CAF8-4244-BB53-1DD2A88FFEC4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{56834C86-AE9C-4771-A648-3138CE362B0C}"/>
+  <xr:revisionPtr revIDLastSave="819" documentId="8_{00EF4B32-CAF8-4244-BB53-1DD2A88FFEC4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{648349CF-6032-4E63-95A2-452B4FFDCD8E}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="219">
   <si>
     <t>Ärzte und andere Akademiker</t>
   </si>
@@ -136,9 +136,6 @@
   </si>
   <si>
     <t>Spezialisierung</t>
-  </si>
-  <si>
-    <t>Bemerkung</t>
   </si>
   <si>
     <t>Ernährungsberatung</t>
@@ -1565,13 +1562,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M90"/>
+  <dimension ref="A1:L90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1583,68 +1580,64 @@
     <col min="5" max="5" width="34.85546875" style="41" customWidth="1"/>
     <col min="6" max="6" width="50" style="41" customWidth="1"/>
     <col min="7" max="8" width="45.140625" style="41" customWidth="1"/>
-    <col min="9" max="9" width="48.85546875" style="2" customWidth="1"/>
-    <col min="10" max="12" width="9.140625" style="2"/>
-    <col min="13" max="13" width="9" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="2"/>
+    <col min="9" max="11" width="9.140625" style="2"/>
+    <col min="12" max="12" width="9" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E1" s="41" t="s">
         <v>32</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G1" s="41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H1" s="41" t="s">
-        <v>218</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="207" customHeight="1" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="207" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>41</v>
-      </c>
       <c r="C2" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E2" s="42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F2" s="45" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G2" s="42"/>
       <c r="H2" s="71" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="213" customHeight="1" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="213" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>0</v>
@@ -1653,62 +1646,62 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F3" s="45" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G3" s="45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H3" s="71" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E4" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="F4" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="F4" s="45" t="s">
-        <v>172</v>
-      </c>
       <c r="G4" s="45" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H4" s="71" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F5" s="45"/>
     </row>
-    <row r="6" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>3</v>
@@ -1717,19 +1710,19 @@
         <v>4</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F6" s="45" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G6" s="45" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H6" s="42"/>
     </row>
-    <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>5</v>
@@ -1738,22 +1731,22 @@
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F7" s="45"/>
       <c r="G7" s="45" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H7" s="71" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>123</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>7</v>
@@ -1769,59 +1762,59 @@
       </c>
       <c r="H8" s="42"/>
     </row>
-    <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F9" s="46"/>
       <c r="G9" s="46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H9" s="73" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E10" s="42" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F10" s="46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G10" s="46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H10" s="73" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>10</v>
@@ -1830,18 +1823,18 @@
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F11" s="45" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G11" s="46" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>12</v>
@@ -1850,21 +1843,21 @@
         <v>7</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F12" s="45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G12" s="45" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H12" s="72" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>12</v>
@@ -1873,24 +1866,24 @@
         <v>13</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E13" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F13" s="45" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G13" s="45" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H13" s="71" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>12</v>
@@ -1902,19 +1895,19 @@
         <v>15</v>
       </c>
       <c r="E14" s="41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F14" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G14" s="45" t="s">
         <v>15</v>
       </c>
       <c r="H14" s="42"/>
     </row>
-    <row r="15" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>16</v>
@@ -1923,22 +1916,21 @@
         <v>7</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F15" s="45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G15" s="45" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H15" s="71" t="s">
-        <v>117</v>
-      </c>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>16</v>
@@ -1947,19 +1939,19 @@
         <v>13</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F16" s="45" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G16" s="46"/>
       <c r="H16" s="71" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>16</v>
@@ -1971,20 +1963,19 @@
         <v>15</v>
       </c>
       <c r="E17" s="41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F17" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G17" s="45" t="s">
         <v>15</v>
       </c>
       <c r="H17" s="42"/>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>16</v>
@@ -1994,43 +1985,42 @@
       </c>
       <c r="F18" s="45"/>
       <c r="G18" s="45" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H18" s="42"/>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="1:9" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>14</v>
       </c>
       <c r="E19" s="41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F19" s="45" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>7</v>
       </c>
       <c r="F20" s="45" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>17</v>
       </c>
@@ -2044,27 +2034,27 @@
         <v>19</v>
       </c>
       <c r="F21" s="45" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G21" s="46" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C22" s="17" t="s">
         <v>14</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E22" s="41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F22" s="45" t="s">
         <v>15</v>
@@ -2076,32 +2066,32 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F23" s="48" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G23" s="45" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>14</v>
@@ -2110,10 +2100,10 @@
         <v>15</v>
       </c>
       <c r="E24" s="41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F24" s="49" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G24" s="49" t="s">
         <v>15</v>
@@ -2122,7 +2112,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>17</v>
       </c>
@@ -2136,13 +2126,13 @@
         <v>22</v>
       </c>
       <c r="F25" s="46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G25" s="49" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>17</v>
       </c>
@@ -2156,10 +2146,10 @@
         <v>15</v>
       </c>
       <c r="E26" s="41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F26" s="49" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G26" s="49" t="s">
         <v>15</v>
@@ -2168,9 +2158,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B27" s="14" t="s">
         <v>23</v>
@@ -2182,89 +2172,89 @@
         <v>20</v>
       </c>
       <c r="E27" s="41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F27" s="45" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H27" s="71" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F28" s="45" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H28" s="71" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C29" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F29" s="42"/>
       <c r="H29" s="73" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C30" s="16" t="s">
         <v>14</v>
       </c>
       <c r="E30" s="42" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F30" s="42"/>
     </row>
-    <row r="31" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C31" s="16" t="s">
         <v>14</v>
       </c>
       <c r="E31" s="42" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F31" s="42"/>
     </row>
-    <row r="32" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C32" s="17" t="s">
         <v>24</v>
@@ -2273,42 +2263,42 @@
         <v>11</v>
       </c>
       <c r="E32" s="42" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F32" s="45" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G32" s="45" t="s">
         <v>11</v>
       </c>
       <c r="H32" s="42"/>
     </row>
-    <row r="33" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C33" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F33" s="45" t="s">
         <v>25</v>
       </c>
       <c r="H33" s="71" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C34" s="17" t="s">
         <v>13</v>
@@ -2317,15 +2307,15 @@
         <v>26</v>
       </c>
       <c r="F34" s="45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H34" s="71" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35" s="14" t="s">
         <v>27</v>
@@ -2334,18 +2324,18 @@
         <v>7</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F35" s="45" t="s">
         <v>25</v>
       </c>
       <c r="H35" s="71" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" s="14" t="s">
         <v>27</v>
@@ -2360,7 +2350,7 @@
         <v>28</v>
       </c>
       <c r="F36" s="45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G36" s="45" t="s">
         <v>28</v>
@@ -2369,9 +2359,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B37" s="34" t="s">
         <v>29</v>
@@ -2383,481 +2373,476 @@
         <v>31</v>
       </c>
       <c r="E37" s="47" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F37" s="50" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G37" s="50" t="s">
         <v>31</v>
       </c>
       <c r="H37" s="47"/>
-      <c r="I37" s="36"/>
-    </row>
-    <row r="38" spans="1:13" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:12" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38" s="34" t="s">
         <v>29</v>
       </c>
       <c r="C38" s="35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D38" s="33" t="s">
         <v>31</v>
       </c>
       <c r="E38" s="47" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F38" s="47"/>
       <c r="G38" s="50" t="s">
         <v>31</v>
       </c>
       <c r="H38" s="47"/>
-      <c r="M38" s="37"/>
-    </row>
-    <row r="39" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="L38" s="37"/>
+    </row>
+    <row r="39" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" s="34" t="s">
         <v>29</v>
       </c>
       <c r="C39" s="35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D39" s="33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E39" s="47" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F39" s="50" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G39" s="50" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H39" s="47"/>
-      <c r="I39" s="36"/>
-    </row>
-    <row r="40" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="E40" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="F40" s="51" t="s">
+        <v>181</v>
+      </c>
+      <c r="G40" s="51" t="s">
+        <v>205</v>
+      </c>
+      <c r="H40" s="74" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="390" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="14" t="s">
         <v>151</v>
-      </c>
-      <c r="F40" s="51" t="s">
-        <v>182</v>
-      </c>
-      <c r="G40" s="51" t="s">
-        <v>206</v>
-      </c>
-      <c r="H40" s="74" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="390" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>152</v>
       </c>
       <c r="C41" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E41" s="42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G41" s="45" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H41" s="75" t="s">
-        <v>215</v>
-      </c>
-      <c r="I41" s="3"/>
-    </row>
-    <row r="42" spans="1:13" ht="180" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C42" s="16" t="s">
         <v>33</v>
       </c>
       <c r="E42" s="42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F42" s="42"/>
-      <c r="I42" s="3"/>
-    </row>
-    <row r="43" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="D43" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="F43" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="G43" s="45" t="s">
+        <v>207</v>
+      </c>
+      <c r="H43" s="71" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F43" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="G43" s="45" t="s">
-        <v>208</v>
-      </c>
-      <c r="H43" s="71" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" s="18" t="s">
-        <v>47</v>
-      </c>
       <c r="D44" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E44" s="43"/>
       <c r="F44" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="G44" s="45" t="s">
+        <v>208</v>
+      </c>
+      <c r="H44" s="71" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" s="71" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="G44" s="45" t="s">
-        <v>209</v>
-      </c>
-      <c r="H44" s="71" t="s">
-        <v>217</v>
-      </c>
-      <c r="I44" s="7"/>
-    </row>
-    <row r="45" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B45" s="14" t="s">
+      <c r="D46" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F46" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="G46" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="H46" s="73" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C45" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F45" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="G45" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="H45" s="71" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="150" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B46" s="14" t="s">
+      <c r="C47" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F47" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="H47" s="73" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C46" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F46" s="45" t="s">
+      <c r="C48" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="H48" s="71" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="G49" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="H49" s="71" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="G50" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="H50" s="71" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="F51" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G51" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="H51" s="71" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E52" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="F52" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="G52" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="H52" s="71" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53" s="71" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F54" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="G54" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="H54" s="73" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="F55" s="46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C56" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="G46" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="H46" s="73" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F47" s="45" t="s">
-        <v>183</v>
-      </c>
-      <c r="H47" s="73" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F48" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="G48" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="H48" s="71" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F49" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="G49" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="H49" s="71" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F50" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="G50" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="H50" s="71" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E51" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="F51" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="G51" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="H51" s="71" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E52" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="F52" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="G52" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="H52" s="71" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C53" s="16" t="s">
+      <c r="D56" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G56" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="H56" s="71" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B57" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="D53" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F53" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="G53" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="H53" s="71" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C54" s="16" t="s">
+      <c r="C57" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F54" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="G54" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="H54" s="73" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B55" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C55" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="F55" s="46" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B56" s="14" t="s">
+      <c r="D57" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="G57" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="H57" s="71" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C58" s="56" t="s">
         <v>136</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F56" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="G56" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="H56" s="71" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B57" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="C57" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F57" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="G57" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="H57" s="71" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B58" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C58" s="56" t="s">
-        <v>137</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>15</v>
@@ -2872,135 +2857,132 @@
       <c r="H58" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="M58" s="53"/>
-    </row>
-    <row r="59" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="L58" s="53"/>
+    </row>
+    <row r="59" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B59" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B59" s="38" t="s">
-        <v>69</v>
-      </c>
       <c r="C59" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="D59" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="F59" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="G59" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="H59" s="77" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C60" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="D59" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="F59" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="G59" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="H59" s="77" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
+      <c r="D60" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F60" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G60" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="H60" s="77" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B60" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C60" s="21" t="s">
+      <c r="C61" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="D60" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F60" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="G60" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="H60" s="77" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
+      <c r="D61" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F61" s="59" t="s">
+        <v>184</v>
+      </c>
+      <c r="G61" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="H61" s="77" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C61" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F61" s="59" t="s">
+      <c r="C62" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F62" s="60" t="s">
         <v>185</v>
       </c>
-      <c r="G61" s="67" t="s">
-        <v>15</v>
-      </c>
-      <c r="H61" s="77" t="s">
-        <v>15</v>
-      </c>
-      <c r="I61" s="3"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
+      <c r="G62" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="H62" s="77" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B62" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C62" s="40" t="s">
+      <c r="C63" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="D62" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F62" s="60" t="s">
-        <v>186</v>
-      </c>
-      <c r="G62" s="67" t="s">
-        <v>15</v>
-      </c>
-      <c r="H62" s="77" t="s">
-        <v>15</v>
-      </c>
-      <c r="I62" s="3"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
+      <c r="D63" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F63" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="G63" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="H63" s="77" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B63" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C63" s="40" t="s">
+      <c r="C64" s="40" t="s">
         <v>139</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F63" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="G63" s="67" t="s">
-        <v>15</v>
-      </c>
-      <c r="H63" s="77" t="s">
-        <v>15</v>
-      </c>
-      <c r="I63" s="3"/>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B64" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C64" s="40" t="s">
-        <v>140</v>
       </c>
       <c r="D64" s="10" t="s">
         <v>15</v>
@@ -3012,117 +2994,115 @@
       <c r="H64" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="I64" s="3"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C65" s="40"/>
       <c r="D65" s="61"/>
       <c r="F65" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="I65" s="3"/>
-    </row>
-    <row r="66" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B66" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C66" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F66" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G66" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="H66" s="70"/>
+    </row>
+    <row r="67" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C67" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F67" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G67" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="H67" s="70"/>
+    </row>
+    <row r="68" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C68" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F68" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G68" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="H68" s="70"/>
+    </row>
+    <row r="69" spans="1:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="C66" s="24" t="s">
+      <c r="C69" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="D66" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F66" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="G66" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="H66" s="70"/>
-    </row>
-    <row r="67" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B67" s="23" t="s">
+      <c r="D69" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F69" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G69" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="H69" s="77" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B70" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="C67" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="D67" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F67" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="G67" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="H67" s="70"/>
-    </row>
-    <row r="68" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B68" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C68" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="D68" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F68" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="G68" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="H68" s="70"/>
-    </row>
-    <row r="69" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B69" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="C69" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F69" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="G69" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="H69" s="77" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B70" s="19" t="s">
-        <v>71</v>
-      </c>
       <c r="C70" s="54" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D70" s="55"/>
       <c r="F70" s="58" t="s">
@@ -3133,87 +3113,87 @@
       </c>
       <c r="H70" s="44"/>
     </row>
-    <row r="71" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B71" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C71" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F71" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="G71" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="H71" s="77" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B72" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="C71" s="21" t="s">
+      <c r="C72" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="D71" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F71" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="G71" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="H71" s="77" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B72" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C72" s="20" t="s">
+      <c r="D72" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F72" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="G72" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="H72" s="73" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B73" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C73" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="D72" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F72" s="59" t="s">
-        <v>20</v>
-      </c>
-      <c r="G72" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="H72" s="73" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B73" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C73" s="21" t="s">
+      <c r="D73" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F73" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="G73" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="H73" s="73" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B74" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C74" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="D73" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F73" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="G73" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="H73" s="73" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B74" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C74" s="25" t="s">
-        <v>83</v>
-      </c>
       <c r="D74" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F74" s="63" t="s">
         <v>15</v>
@@ -3225,18 +3205,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B75" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="C75" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="C75" s="39" t="s">
-        <v>106</v>
-      </c>
       <c r="D75" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F75" s="46" t="s">
         <v>15</v>
@@ -3248,12 +3228,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B76" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C76" s="27"/>
       <c r="D76" s="9" t="s">
@@ -3267,162 +3247,161 @@
       </c>
       <c r="H76" s="44"/>
     </row>
-    <row r="77" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B77" s="38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C77" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F77" s="60" t="s">
+        <v>188</v>
+      </c>
+      <c r="G77" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="H77" s="77" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B78" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="C78" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="D77" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F77" s="60" t="s">
+      <c r="D78" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F78" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="G78" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="H78" s="77" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B79" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="C79" s="39" t="s">
         <v>189</v>
-      </c>
-      <c r="G77" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="H77" s="77" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B78" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="C78" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F78" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="G78" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="H78" s="77" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B79" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="C79" s="39" t="s">
-        <v>190</v>
       </c>
       <c r="D79" s="55"/>
       <c r="F79" s="60" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B80" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C80" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F80" s="45"/>
       <c r="G80" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="I80" s="3"/>
-    </row>
-    <row r="81" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B81" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C81" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="D81" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F81" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G81" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="H81" s="44"/>
+    </row>
+    <row r="82" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B82" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="C81" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="D81" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F81" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="G81" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="H81" s="44"/>
-    </row>
-    <row r="82" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B82" s="30" t="s">
-        <v>74</v>
-      </c>
       <c r="C82" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="F82" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="G82" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="H82" s="73" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B83" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C83" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="D82" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="F82" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="G82" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="H82" s="73" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B83" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="C83" s="32" t="s">
+      <c r="D83" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G83" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="H83" s="73" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B84" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="C84" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="D83" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="G83" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="H83" s="73" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B84" s="64" t="s">
-        <v>74</v>
-      </c>
-      <c r="C84" s="65" t="s">
-        <v>86</v>
-      </c>
       <c r="D84" s="66" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E84" s="43"/>
       <c r="F84" s="43"/>
@@ -3432,75 +3411,75 @@
       <c r="H84" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="M84" s="53"/>
-    </row>
-    <row r="85" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="L84" s="53"/>
+    </row>
+    <row r="85" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B85" s="14" t="s">
         <v>164</v>
-      </c>
-      <c r="B85" s="14" t="s">
-        <v>165</v>
       </c>
       <c r="C85" s="16" t="s">
         <v>14</v>
       </c>
       <c r="E85" s="42" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B86" s="14" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" ht="150" x14ac:dyDescent="0.25">
-      <c r="A86" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B86" s="14" t="s">
-        <v>167</v>
       </c>
       <c r="C86" s="16" t="s">
         <v>14</v>
       </c>
       <c r="E86" s="42" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B87" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="F87" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="F87" s="45" t="s">
+    </row>
+    <row r="88" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B88" s="14" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B88" s="14" t="s">
+      <c r="F88" s="46" t="s">
         <v>193</v>
       </c>
-      <c r="F88" s="46" t="s">
+    </row>
+    <row r="89" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B89" s="14" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" ht="150" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B89" s="14" t="s">
+      <c r="F89" s="45" t="s">
         <v>195</v>
       </c>
-      <c r="F89" s="45" t="s">
+    </row>
+    <row r="90" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
+      <c r="D90" s="3" t="s">
         <v>197</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>198</v>
       </c>
       <c r="G90" s="46"/>
     </row>
